--- a/Hardware/Project Documents/BOM/Simple Fan Controller Rev A0 - BOM Rev A.xlsx
+++ b/Hardware/Project Documents/BOM/Simple Fan Controller Rev A0 - BOM Rev A.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
   <si>
     <t>Bill of Materials</t>
   </si>
@@ -65,51 +65,6 @@
     <t>Kapton tape</t>
   </si>
   <si>
-    <t>Total Material:</t>
-  </si>
-  <si>
-    <t>LABOR:</t>
-  </si>
-  <si>
-    <t>Soldering</t>
-  </si>
-  <si>
-    <t>minutes</t>
-  </si>
-  <si>
-    <t>Solder touch up</t>
-  </si>
-  <si>
-    <t>Programming</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Mounting &amp; Packaging</t>
-  </si>
-  <si>
-    <t>Assembly</t>
-  </si>
-  <si>
-    <t>Setup/Rework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost = </t>
-  </si>
-  <si>
-    <t>Total Labor:</t>
-  </si>
-  <si>
-    <t>Total (Mat + labor):</t>
-  </si>
-  <si>
-    <t>Net Sell:</t>
-  </si>
-  <si>
-    <t>per hour</t>
-  </si>
-  <si>
     <t>Item #</t>
   </si>
   <si>
@@ -131,10 +86,16 @@
     <t>Qty total</t>
   </si>
   <si>
-    <t>&lt;Parameter DrawnBy not found&gt;</t>
-  </si>
-  <si>
-    <t>6/6/2013</t>
+    <t>Total Material per board:</t>
+  </si>
+  <si>
+    <t>Total Material for Build:</t>
+  </si>
+  <si>
+    <t>Craig Comberbach</t>
+  </si>
+  <si>
+    <t>6/11/2013</t>
   </si>
   <si>
     <t>Simple Fan Controller.PrjPCB</t>
@@ -143,10 +104,10 @@
     <t>None</t>
   </si>
   <si>
-    <t>12:19:02 PM</t>
-  </si>
-  <si>
-    <t>&lt;Parameter Revision not found&gt;</t>
+    <t>12:10:31 PM</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -182,12 +143,21 @@
     <t>Q2, Q3</t>
   </si>
   <si>
+    <t>R1, R15A, R15B</t>
+  </si>
+  <si>
     <t>R2, R3, R4, R5, R6, R9, R10, R11, R12</t>
   </si>
   <si>
     <t>R7, R8</t>
   </si>
   <si>
+    <t>R13A, R13B</t>
+  </si>
+  <si>
+    <t>R14A, R14B</t>
+  </si>
+  <si>
     <t>U1</t>
   </si>
   <si>
@@ -378,29 +348,18 @@
   </si>
   <si>
     <t>THT</t>
-  </si>
-  <si>
-    <t>R1, R15A, R15B</t>
-  </si>
-  <si>
-    <t>R13A, R13B</t>
-  </si>
-  <si>
-    <t>R14A, R14B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00000"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.000"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="169" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -466,7 +425,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,12 +450,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -744,7 +697,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -793,30 +746,17 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -849,21 +789,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="18" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="18" xfId="15" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="17" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -872,7 +812,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -905,12 +848,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -931,9 +868,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -956,91 +890,7 @@
     <cellStyle name="Normal 4" xfId="15"/>
     <cellStyle name="Normal 5" xfId="16"/>
   </cellStyles>
-  <dxfs count="112">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="100">
     <dxf>
       <fill>
         <patternFill>
@@ -2041,11 +1891,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2066,100 +1916,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="41"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="36"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="74"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="62"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>41</v>
+      <c r="B4" s="58"/>
+      <c r="C4" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>28</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="32">
-        <v>1</v>
+      <c r="G4" s="21">
+        <v>2</v>
       </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="45"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="34"/>
       <c r="E5" s="13"/>
       <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="58" t="s">
-        <v>42</v>
+      <c r="G5" s="48" t="s">
+        <v>29</v>
       </c>
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="45"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="34"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="21" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -2173,41 +2025,41 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="44" t="s">
+      <c r="C8" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="59" t="s">
-        <v>118</v>
+      <c r="K8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -2218,37 +2070,37 @@
       <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="54">
+      <c r="C9" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="43">
         <v>2.84</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="20">
         <f>I9*B9</f>
         <v>2.84</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="42">
         <f>B9*G$4</f>
-        <v>1</v>
-      </c>
-      <c r="L9" s="64" t="s">
-        <v>119</v>
+        <v>2</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2259,37 +2111,37 @@
       <c r="B10" s="11">
         <v>4</v>
       </c>
-      <c r="C10" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="63" t="s">
+      <c r="C10" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="54">
+      <c r="H10" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="43">
         <v>0.42</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="20">
         <f>I10*B10</f>
         <v>1.68</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="42">
         <f>B10*G$4</f>
-        <v>4</v>
-      </c>
-      <c r="L10" s="64" t="s">
-        <v>119</v>
+        <v>8</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -2300,37 +2152,37 @@
       <c r="B11" s="11">
         <v>2</v>
       </c>
-      <c r="C11" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="54">
+      <c r="C11" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="43">
         <v>0.25</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="20">
         <f>I11*B11</f>
         <v>0.5</v>
       </c>
-      <c r="K11" s="53">
+      <c r="K11" s="42">
         <f>B11*G$4</f>
-        <v>2</v>
-      </c>
-      <c r="L11" s="64" t="s">
-        <v>119</v>
+        <v>4</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -2341,37 +2193,37 @@
       <c r="B12" s="11">
         <v>1</v>
       </c>
-      <c r="C12" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="54">
+      <c r="C12" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="43">
         <v>0.27</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="20">
         <f>I12*B12</f>
         <v>0.27</v>
       </c>
-      <c r="K12" s="53">
+      <c r="K12" s="42">
         <f>B12*G$4</f>
-        <v>1</v>
-      </c>
-      <c r="L12" s="64" t="s">
-        <v>119</v>
+        <v>2</v>
+      </c>
+      <c r="L12" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="8" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -2382,37 +2234,37 @@
       <c r="B13" s="11">
         <v>1</v>
       </c>
-      <c r="C13" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" s="54">
+      <c r="C13" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="43">
         <v>0.31</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="20">
         <f>I13*B13</f>
         <v>0.31</v>
       </c>
-      <c r="K13" s="53">
+      <c r="K13" s="42">
         <f>B13*G$4</f>
-        <v>1</v>
-      </c>
-      <c r="L13" s="64" t="s">
-        <v>119</v>
+        <v>2</v>
+      </c>
+      <c r="L13" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -2423,37 +2275,37 @@
       <c r="B14" s="11">
         <v>1</v>
       </c>
-      <c r="C14" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="54">
+      <c r="C14" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="43">
         <v>0.22</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="20">
         <f>I14*B14</f>
         <v>0.22</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="42">
         <f>B14*G$4</f>
-        <v>1</v>
-      </c>
-      <c r="L14" s="64" t="s">
-        <v>119</v>
+        <v>2</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2464,37 +2316,35 @@
       <c r="B15" s="11">
         <v>1</v>
       </c>
-      <c r="C15" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="62" t="s">
+      <c r="C15" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="20">
+        <f>I15*B15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="42">
+        <f>B15*G$4</f>
+        <v>2</v>
+      </c>
+      <c r="L15" s="54" t="s">
         <v>109</v>
-      </c>
-      <c r="I15" s="54">
-        <v>25.86</v>
-      </c>
-      <c r="J15" s="31">
-        <f>I15*B15</f>
-        <v>25.86</v>
-      </c>
-      <c r="K15" s="53">
-        <f>B15*G$4</f>
-        <v>1</v>
-      </c>
-      <c r="L15" s="64" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -2505,37 +2355,37 @@
       <c r="B16" s="11">
         <v>1</v>
       </c>
-      <c r="C16" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="54">
+      <c r="C16" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="43">
         <v>0.44</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="20">
         <f>I16*B16</f>
         <v>0.44</v>
       </c>
-      <c r="K16" s="53">
+      <c r="K16" s="42">
         <f>B16*G$4</f>
-        <v>1</v>
-      </c>
-      <c r="L16" s="64" t="s">
-        <v>119</v>
+        <v>2</v>
+      </c>
+      <c r="L16" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2546,37 +2396,37 @@
       <c r="B17" s="11">
         <v>2</v>
       </c>
-      <c r="C17" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="62" t="s">
+      <c r="C17" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" s="54">
+      <c r="I17" s="43">
         <v>0.38</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="20">
         <f>I17*B17</f>
         <v>0.76</v>
       </c>
-      <c r="K17" s="53">
+      <c r="K17" s="42">
         <f>B17*G$4</f>
-        <v>2</v>
-      </c>
-      <c r="L17" s="64" t="s">
-        <v>119</v>
+        <v>4</v>
+      </c>
+      <c r="L17" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2587,37 +2437,37 @@
       <c r="B18" s="11">
         <v>3</v>
       </c>
-      <c r="C18" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="54">
+      <c r="C18" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="43">
         <v>0.11</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="20">
         <f>I18*B18</f>
         <v>0.33</v>
       </c>
-      <c r="K18" s="53">
+      <c r="K18" s="42">
         <f>B18*G$4</f>
-        <v>3</v>
-      </c>
-      <c r="L18" s="64" t="s">
-        <v>119</v>
+        <v>6</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="8" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
@@ -2628,37 +2478,37 @@
       <c r="B19" s="11">
         <v>2</v>
       </c>
-      <c r="C19" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" s="54">
+      <c r="C19" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="43">
         <v>0.9</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="20">
         <f>I19*B19</f>
         <v>1.8</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="42">
         <f>B19*G$4</f>
-        <v>2</v>
-      </c>
-      <c r="L19" s="64" t="s">
-        <v>119</v>
+        <v>4</v>
+      </c>
+      <c r="L19" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2669,37 +2519,37 @@
       <c r="B20" s="11">
         <v>2</v>
       </c>
-      <c r="C20" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="62" t="s">
+      <c r="C20" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" s="54">
+      <c r="G20" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="43">
         <v>0.11</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="20">
         <f>I20*B20</f>
         <v>0.22</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="42">
         <f>B20*G$4</f>
-        <v>2</v>
-      </c>
-      <c r="L20" s="64" t="s">
-        <v>119</v>
+        <v>4</v>
+      </c>
+      <c r="L20" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -2710,37 +2560,37 @@
       <c r="B21" s="11">
         <v>9</v>
       </c>
-      <c r="C21" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="54">
-        <v>0.11</v>
-      </c>
-      <c r="J21" s="31">
+      <c r="C21" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="43">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="J21" s="20">
         <f>I21*B21</f>
-        <v>0.99</v>
-      </c>
-      <c r="K21" s="53">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="K21" s="42">
         <f>B21*G$4</f>
-        <v>9</v>
-      </c>
-      <c r="L21" s="64" t="s">
-        <v>119</v>
+        <v>18</v>
+      </c>
+      <c r="L21" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2751,37 +2601,37 @@
       <c r="B22" s="11">
         <v>2</v>
       </c>
-      <c r="C22" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="I22" s="54">
+      <c r="C22" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="43">
         <v>0.11</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="20">
         <f>I22*B22</f>
         <v>0.22</v>
       </c>
-      <c r="K22" s="53">
+      <c r="K22" s="42">
         <f>B22*G$4</f>
-        <v>2</v>
-      </c>
-      <c r="L22" s="64" t="s">
-        <v>119</v>
+        <v>4</v>
+      </c>
+      <c r="L22" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2792,37 +2642,37 @@
       <c r="B23" s="11">
         <v>1</v>
       </c>
-      <c r="C23" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" s="54">
+      <c r="C23" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="43">
         <v>2.2599999999999998</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="20">
         <f>I23*B23</f>
         <v>2.2599999999999998</v>
       </c>
-      <c r="K23" s="53">
+      <c r="K23" s="42">
         <f>B23*G$4</f>
-        <v>1</v>
-      </c>
-      <c r="L23" s="64" t="s">
-        <v>119</v>
+        <v>2</v>
+      </c>
+      <c r="L23" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2835,7 +2685,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="17">
         <f>SUM(J9:J23)</f>
-        <v>38.699999999999989</v>
+        <v>12.677999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2854,13 +2704,11 @@
         <v>12</v>
       </c>
       <c r="F27" s="14"/>
-      <c r="G27" s="15">
-        <v>0.25</v>
-      </c>
+      <c r="G27" s="15"/>
       <c r="H27" s="16"/>
       <c r="I27" s="17">
         <f>G27</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2869,9 +2717,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="14"/>
-      <c r="G28" s="15">
-        <v>0</v>
-      </c>
+      <c r="G28" s="15"/>
       <c r="H28" s="16"/>
       <c r="I28" s="17">
         <f>G28</f>
@@ -2913,28 +2759,31 @@
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="65"/>
+      <c r="G32" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="55"/>
       <c r="I32" s="19">
         <f>SUM(I25:I31)</f>
-        <v>38.949999999999989</v>
+        <v>12.677999999999999</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D33" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="44" t="s">
+        <v>23</v>
+      </c>
       <c r="H33" s="15"/>
-      <c r="I33" s="14"/>
+      <c r="I33" s="19">
+        <f>I32*G4</f>
+        <v>25.355999999999998</v>
+      </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="56"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
@@ -2942,698 +2791,441 @@
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D35" s="14"/>
-      <c r="E35" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="14">
-        <v>10</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>18</v>
-      </c>
+      <c r="E35" s="56"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="22"/>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D36" s="14"/>
-      <c r="E36" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="14">
-        <v>0</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="22"/>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D37" s="14"/>
-      <c r="E37" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="14">
-        <v>1</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="22"/>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D38" s="14"/>
-      <c r="E38" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="14">
-        <v>5</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="22"/>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D39" s="14"/>
-      <c r="E39" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="14">
-        <v>5</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="22"/>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D40" s="14"/>
-      <c r="E40" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="14">
-        <v>0</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="22"/>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D41" s="14"/>
-      <c r="E41" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="14">
-        <v>0</v>
-      </c>
-      <c r="G41" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="22"/>
-    </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="22"/>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D43" s="14"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="14">
-        <f>SUM(F35:F41)</f>
-        <v>21</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I43" s="23">
-        <f>(F43/60)*F52</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D44" s="14"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D45" s="14"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="67"/>
-      <c r="I45" s="19">
-        <f>I43</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D46" s="14"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="17"/>
-    </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D47" s="14"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="66"/>
-      <c r="I47" s="19">
-        <f>I32+I45</f>
-        <v>45.949999999999989</v>
-      </c>
-    </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D48" s="14"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="17"/>
-    </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D49" s="14"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" s="26"/>
-      <c r="I49" s="27">
-        <f>I47/0.7</f>
-        <v>65.642857142857125</v>
-      </c>
-    </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D50" s="14"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="17"/>
-    </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D51" s="14"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="17"/>
-    </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D52" s="14"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="28">
-        <v>20</v>
-      </c>
-      <c r="G52" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H52" s="14"/>
-      <c r="I52" s="17"/>
-    </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D53" s="14"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="16"/>
-    </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D54" s="14"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="16"/>
-    </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D55" s="14"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="16"/>
-    </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D56" s="14"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="16"/>
+      <c r="I35" s="16"/>
     </row>
   </sheetData>
   <sortState ref="A9:M23">
     <sortCondition ref="L9:L23"/>
     <sortCondition ref="C9:C23"/>
   </sortState>
-  <mergeCells count="10">
+  <mergeCells count="8">
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="E45:E56"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="F35:F41 G27:G29">
-    <cfRule type="cellIs" dxfId="111" priority="312" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="G27:G29">
+    <cfRule type="cellIs" dxfId="99" priority="303" stopIfTrue="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:XFD7 L24:XFD1048576 N8:XFD9">
-    <cfRule type="cellIs" dxfId="110" priority="254" operator="equal">
+  <conditionalFormatting sqref="L3:XFD7 N8:XFD9 L24:XFD1048576">
+    <cfRule type="cellIs" dxfId="98" priority="245" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:XFD10">
-    <cfRule type="cellIs" dxfId="109" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="132" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:L9 K10">
-    <cfRule type="expression" dxfId="108" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="98" stopIfTrue="1">
       <formula>$B9=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="143">
+    <cfRule type="expression" dxfId="95" priority="134">
       <formula>$L9="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="330">
+    <cfRule type="expression" dxfId="94" priority="321">
       <formula>MOD($A9,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:J10 L10">
-    <cfRule type="expression" dxfId="105" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="91" stopIfTrue="1">
       <formula>$B10=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="101">
+    <cfRule type="expression" dxfId="92" priority="92">
       <formula>$L10="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="102">
+    <cfRule type="expression" dxfId="91" priority="93">
       <formula>MOD($A10,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:K9 K10">
-    <cfRule type="expression" dxfId="102" priority="103">
+    <cfRule type="expression" dxfId="90" priority="94">
       <formula>$I9&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:J10">
-    <cfRule type="expression" dxfId="101" priority="99">
+    <cfRule type="expression" dxfId="89" priority="90">
       <formula>$I10&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:XFD11">
-    <cfRule type="cellIs" dxfId="100" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="88" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:L11">
-    <cfRule type="expression" dxfId="99" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="86" stopIfTrue="1">
       <formula>$B11=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="96">
+    <cfRule type="expression" dxfId="86" priority="87">
       <formula>$L11="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="98">
+    <cfRule type="expression" dxfId="85" priority="89">
       <formula>MOD($A11,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:K11">
-    <cfRule type="expression" dxfId="96" priority="94">
+    <cfRule type="expression" dxfId="84" priority="85">
       <formula>$I11&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:XFD12">
-    <cfRule type="cellIs" dxfId="95" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="94" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="81" stopIfTrue="1">
       <formula>$B12=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="92">
+    <cfRule type="expression" dxfId="81" priority="83">
       <formula>$L12="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="93">
+    <cfRule type="expression" dxfId="80" priority="84">
       <formula>MOD($A12,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:J12 L12">
-    <cfRule type="expression" dxfId="91" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="77" stopIfTrue="1">
       <formula>$B12=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="87">
+    <cfRule type="expression" dxfId="78" priority="78">
       <formula>$L12="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="88">
+    <cfRule type="expression" dxfId="77" priority="79">
       <formula>MOD($A12,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="expression" dxfId="88" priority="89">
+    <cfRule type="expression" dxfId="76" priority="80">
       <formula>$I12&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:J12">
-    <cfRule type="expression" dxfId="87" priority="85">
+    <cfRule type="expression" dxfId="75" priority="76">
       <formula>$I12&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:XFD13">
-    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:L13">
-    <cfRule type="expression" dxfId="85" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="72" stopIfTrue="1">
       <formula>$B13=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="82">
+    <cfRule type="expression" dxfId="72" priority="73">
       <formula>$L13="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="84">
+    <cfRule type="expression" dxfId="71" priority="75">
       <formula>MOD($A13,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:K13">
-    <cfRule type="expression" dxfId="82" priority="80">
+    <cfRule type="expression" dxfId="70" priority="71">
       <formula>$I13&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:XFD14">
-    <cfRule type="cellIs" dxfId="81" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="68" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="80" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="67" stopIfTrue="1">
       <formula>$B14=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="78">
+    <cfRule type="expression" dxfId="67" priority="69">
       <formula>$L14="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="79">
+    <cfRule type="expression" dxfId="66" priority="70">
       <formula>MOD($A14,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:J14 L14">
-    <cfRule type="expression" dxfId="77" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="63" stopIfTrue="1">
       <formula>$B14=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="73">
+    <cfRule type="expression" dxfId="64" priority="64">
       <formula>$L14="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="74">
+    <cfRule type="expression" dxfId="63" priority="65">
       <formula>MOD($A14,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="74" priority="75">
+    <cfRule type="expression" dxfId="62" priority="66">
       <formula>$I14&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:J14">
-    <cfRule type="expression" dxfId="73" priority="71">
+    <cfRule type="expression" dxfId="61" priority="62">
       <formula>$I14&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:XFD15">
-    <cfRule type="cellIs" dxfId="72" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:L15">
-    <cfRule type="expression" dxfId="71" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="58" stopIfTrue="1">
       <formula>$B15=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="68">
+    <cfRule type="expression" dxfId="58" priority="59">
       <formula>$L15="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="70">
+    <cfRule type="expression" dxfId="57" priority="61">
       <formula>MOD($A15,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:K15">
-    <cfRule type="expression" dxfId="68" priority="66">
+    <cfRule type="expression" dxfId="56" priority="57">
       <formula>$I15&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:XFD16">
-    <cfRule type="cellIs" dxfId="67" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="54" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="66" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="53" stopIfTrue="1">
       <formula>$B16=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="64">
+    <cfRule type="expression" dxfId="53" priority="55">
       <formula>$L16="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="65">
+    <cfRule type="expression" dxfId="52" priority="56">
       <formula>MOD($A16,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:J16 L16">
-    <cfRule type="expression" dxfId="63" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="49" stopIfTrue="1">
       <formula>$B16=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="59">
+    <cfRule type="expression" dxfId="50" priority="50">
       <formula>$L16="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="60">
+    <cfRule type="expression" dxfId="49" priority="51">
       <formula>MOD($A16,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="60" priority="61">
+    <cfRule type="expression" dxfId="48" priority="52">
       <formula>$I16&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:J16">
-    <cfRule type="expression" dxfId="59" priority="57">
+    <cfRule type="expression" dxfId="47" priority="48">
       <formula>$I16&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:XFD17">
-    <cfRule type="cellIs" dxfId="58" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:L17">
-    <cfRule type="expression" dxfId="57" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="44" stopIfTrue="1">
       <formula>$B17=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="54">
+    <cfRule type="expression" dxfId="44" priority="45">
       <formula>$L17="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="43" priority="47">
       <formula>MOD($A17,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:K17">
-    <cfRule type="expression" dxfId="54" priority="52">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>$I17&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:XFD18">
-    <cfRule type="cellIs" dxfId="53" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="52" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="39" stopIfTrue="1">
       <formula>$B18=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="50">
+    <cfRule type="expression" dxfId="39" priority="41">
       <formula>$L18="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="38" priority="42">
       <formula>MOD($A18,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:J18 L18">
-    <cfRule type="expression" dxfId="49" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="35" stopIfTrue="1">
       <formula>$B18=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="45">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>$L18="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="46">
+    <cfRule type="expression" dxfId="35" priority="37">
       <formula>MOD($A18,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="34" priority="38">
       <formula>$I18&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:J18">
-    <cfRule type="expression" dxfId="45" priority="43">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>$I18&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:XFD19">
-    <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:L19">
-    <cfRule type="expression" dxfId="43" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="30" stopIfTrue="1">
       <formula>$B19=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="40">
+    <cfRule type="expression" dxfId="30" priority="31">
       <formula>$L19="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="29" priority="33">
       <formula>MOD($A19,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:K19">
-    <cfRule type="expression" dxfId="40" priority="38">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>$I19&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20:XFD20">
-    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="38" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="25" stopIfTrue="1">
       <formula>$B20=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="36">
+    <cfRule type="expression" dxfId="25" priority="27">
       <formula>$L20="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="37">
+    <cfRule type="expression" dxfId="24" priority="28">
       <formula>MOD($A20,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:J20 L20">
-    <cfRule type="expression" dxfId="35" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
       <formula>$B20=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="31">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$L20="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="32">
+    <cfRule type="expression" dxfId="21" priority="23">
       <formula>MOD($A20,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="20" priority="24">
       <formula>$I20&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:J20">
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$I20&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:XFD21">
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:L21">
-    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
       <formula>$B21=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="26">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$L21="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>MOD($A21,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K21">
-    <cfRule type="expression" dxfId="26" priority="24">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$I21&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:XFD22">
-    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="24" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="11" stopIfTrue="1">
       <formula>$B22=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>$L22="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="10" priority="14">
       <formula>MOD($A22,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:J22 L22 A23">
-    <cfRule type="expression" dxfId="21" priority="16" stopIfTrue="1">
+  <conditionalFormatting sqref="A22:J22 L22">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>$B22=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$L22="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>MOD($A22,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>$I22&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:J22">
-    <cfRule type="expression" dxfId="17" priority="15">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$I22&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:XFD23">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="A23:L23">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
       <formula>$B23=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$L23="THT"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>MOD($A23,2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:J23 L23">
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
-      <formula>$B23=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
-      <formula>$L23="THT"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>MOD($A23,2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$I23&lt;=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:J23">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="I23:K23">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$I23&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3656,40 +3248,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="121.85546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="7.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="121.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>34</v>
+      <c r="A1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
+      <c r="A2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="35"/>
+      <c r="B3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="35"/>
+      <c r="C4" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
